--- a/data/Excel.xlsx
+++ b/data/Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flyer\IdeaProjects\TeamPython_HybridFrameWork\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flyer\PNT\TeamPython_Hybrid_BACKUP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875B7B9-A7F3-4029-B260-C28BBEAE424D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2242AF5D-9EEA-4995-A04E-C68EB58FCDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D4DC3308-5999-8347-8F01-CB7EC91F937E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>khan23@gmail.com</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>http://automationpractice.com/index.php?controller=history</t>
-  </si>
-  <si>
-    <t>http://automationpractice.com/index.php</t>
   </si>
   <si>
     <t>http://automationpractice.com/index.php?id_product=1&amp;controller=product</t>
@@ -663,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB82815A-94AC-2C4A-ABB9-0509CC31F7BD}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -695,19 +692,19 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
       <c r="J1" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.5" thickBot="1">
@@ -721,19 +718,19 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="31.5" thickBot="1">
@@ -747,19 +744,19 @@
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="31.5" thickBot="1">
@@ -773,19 +770,19 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="47" thickBot="1">
@@ -799,19 +796,19 @@
         <v>16</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="47" thickBot="1">
@@ -825,19 +822,19 @@
         <v>17</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="46.5">
@@ -851,11 +848,11 @@
         <v>19</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="8"/>
       <c r="J7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="46.5">
@@ -863,80 +860,80 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="46.5">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="46.5">
       <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
+        <v>63</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="46.5">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="46.5">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="46.5">
       <c r="G13" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="46.5">
